--- a/Modela/User Case Points - UCP.xlsx
+++ b/Modela/User Case Points - UCP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19310"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="146" documentId="11_C870B4F71BE170836B02CE998F75CCDC64E19E90" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{AAB28CA1-9A99-45F8-B737-D500EE184B67}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179016"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -233,8 +232,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +344,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,7 +357,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,42 +663,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -710,7 +709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -721,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -732,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -743,24 +742,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="10">
+      <c r="B8" s="9"/>
+      <c r="C8" s="6">
         <f>B5*C5+B6*C6+B7*C7</f>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -771,73 +770,73 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="10">
+      <c r="B15" s="9"/>
+      <c r="C15" s="6">
         <f>B12*C12+B13*C13+B14*C14</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="3">
         <f>C8+C15</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -851,7 +850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -865,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -876,10 +875,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -893,7 +892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -907,7 +906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -921,7 +920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -935,7 +934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -949,7 +948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -963,7 +962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -974,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -991,7 +990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -1005,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -1019,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -1033,46 +1032,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="8"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="3">
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="3">
         <f>D35+D36*(C22*D22+C23*D23+C24*D24+C25*D25+C26*D26+C27*D27+C28*D28+C29*D29+C30*D30+C31*D31+C32*D32+C33*D33+C34*D34)</f>
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="6" t="s">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>49</v>
       </c>
@@ -1086,7 +1085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
@@ -1100,7 +1099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -1114,7 +1113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -1128,7 +1127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -1142,7 +1141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>58</v>
       </c>
@@ -1153,10 +1152,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
@@ -1170,7 +1169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>62</v>
       </c>
@@ -1181,10 +1180,10 @@
         <v>-1</v>
       </c>
       <c r="D47" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>64</v>
       </c>
@@ -1198,53 +1197,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="6" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="4">
         <v>1.4</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="4">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="4">
         <f>D49+D50*(C41*D41+C42*D42+C43*D43+C44*D44+C45*D45+C46*D46+C47*D47+C48*D48)</f>
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="6" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B54" s="3">
         <f>B18*D37*D51</f>
-        <v>7.9870000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>37.555199999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>69</v>
       </c>
@@ -1252,13 +1251,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B56" s="3">
         <f>B54*B55</f>
-        <v>159.74</v>
+        <v>751.10400000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Modela/User Case Points - UCP.xlsx
+++ b/Modela/User Case Points - UCP.xlsx
@@ -663,7 +663,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -674,7 +674,7 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +789,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -810,7 +810,7 @@
       <c r="B15" s="9"/>
       <c r="C15" s="6">
         <f>B12*C12+B13*C13+B14*C14</f>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -825,7 +825,7 @@
       </c>
       <c r="B18" s="3">
         <f>C8+C15</f>
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B54" s="3">
         <f>B18*D37*D51</f>
-        <v>37.555199999999999</v>
+        <v>41.467199999999991</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B56" s="3">
         <f>B54*B55</f>
-        <v>751.10400000000004</v>
+        <v>829.34399999999982</v>
       </c>
     </row>
   </sheetData>
